--- a/problemSets/PS02/my_answers/ProblemSet2.xlsx
+++ b/problemSets/PS02/my_answers/ProblemSet2.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio Felix\OneDrive\Documents\GitHub\StatsI_Fall2023\problemSets\PS02\my_answers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C1D44E-4CE3-4197-9FD4-9A344E7AB1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B973CDFB-7F94-464B-9D34-F62AB7818379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{DC7AF068-4167-4E91-A079-1CD7852E13D3}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DC7AF068-4167-4E91-A079-1CD7852E13D3}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="3" r:id="rId1"/>
-    <sheet name="BIVARIATE LINEAR REGRESSION" sheetId="2" r:id="rId2"/>
-    <sheet name="Pearson Correlation Coefficient" sheetId="1" r:id="rId3"/>
+    <sheet name="P2_01" sheetId="4" r:id="rId1"/>
+    <sheet name="data" sheetId="3" r:id="rId2"/>
+    <sheet name="BIVARIATE LINEAR REGRESSION" sheetId="2" r:id="rId3"/>
+    <sheet name="Pearson Correlation Coefficient" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">data!$A$1:$F$323</definedName>
+    <definedName name="ExternalData_1" localSheetId="1" hidden="1">data!$A$1:$F$323</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>X</t>
   </si>
@@ -146,13 +147,53 @@
   <si>
     <t>Intercept (B0)</t>
   </si>
+  <si>
+    <t>Upper class</t>
+  </si>
+  <si>
+    <t>Lower class</t>
+  </si>
+  <si>
+    <t>Not Stopped</t>
+  </si>
+  <si>
+    <t>Bribe requested</t>
+  </si>
+  <si>
+    <t>Stopped/given warning</t>
+  </si>
+  <si>
+    <t>Row Total</t>
+  </si>
+  <si>
+    <t>Column Total</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Expected Frequency (E) =</t>
+  </si>
+  <si>
+    <t>CHI Squared Statistic</t>
+  </si>
+  <si>
+    <t>CHI Squared Statistic (∑)</t>
+  </si>
+  <si>
+    <t>Degrees of Freedom (DF)</t>
+  </si>
+  <si>
+    <t>STANDARDIZED RESIDUAL (R)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -185,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -313,11 +354,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -356,7 +406,43 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,11 +786,280 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED65886E-1143-489E-94F6-BE01AADCE172}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="4" width="14.7109375" customWidth="1"/>
+    <col min="8" max="11" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="5">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>7</v>
+      </c>
+      <c r="E2" s="12">
+        <f>SUM(B2:D2)</f>
+        <v>27</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="5">
+        <f>(B2-B9)/SQRT(B9)</f>
+        <v>0.13608276348795434</v>
+      </c>
+      <c r="J2" s="5">
+        <f t="shared" ref="J2:K2" si="0">(C2-C9)/SQRT(C9)</f>
+        <v>-0.81537424832721139</v>
+      </c>
+      <c r="K2" s="5">
+        <f t="shared" si="0"/>
+        <v>0.81892302485332547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="5">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
+        <f>SUM(B3:D3)</f>
+        <v>15</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="5">
+        <f>(B3-B10)/SQRT(B10)</f>
+        <v>-0.18257418583505536</v>
+      </c>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3" si="1">(C3-C10)/SQRT(C10)</f>
+        <v>1.0939393478174628</v>
+      </c>
+      <c r="K3" s="5">
+        <f>(D3-D10)/SQRT(D10)</f>
+        <v>-1.0987005311470717</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="25">
+        <f>SUM(B2:B3)</f>
+        <v>21</v>
+      </c>
+      <c r="C4" s="25">
+        <f>SUM(C2:C3)</f>
+        <v>13</v>
+      </c>
+      <c r="D4" s="25">
+        <f>SUM(D2:D3)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="24">
+        <f>SUM(B2:D3)</f>
+        <v>42</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="21">
+        <f>($E$2*B4)/$B$5</f>
+        <v>13.5</v>
+      </c>
+      <c r="C9" s="26">
+        <f>($E$2*C4)/$B$5</f>
+        <v>8.3571428571428577</v>
+      </c>
+      <c r="D9" s="26">
+        <f>($E$2*D4)/$B$5</f>
+        <v>5.1428571428571432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="21">
+        <f>($E$3*B4)/$B$5</f>
+        <v>7.5</v>
+      </c>
+      <c r="C10" s="26">
+        <f>($E$3*C4)/$B$5</f>
+        <v>4.6428571428571432</v>
+      </c>
+      <c r="D10" s="26">
+        <f>($E$3*D4)/$B$5</f>
+        <v>2.8571428571428572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="26">
+        <f>(B2-B9)^2/B9</f>
+        <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="C14" s="26">
+        <f>(C2-C9)^2/C9</f>
+        <v>0.66483516483516503</v>
+      </c>
+      <c r="D14" s="26">
+        <f>(D2-D9)^2/D9</f>
+        <v>0.67063492063492036</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="26">
+        <f>(B3-B10)^2/B10</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="C15" s="26">
+        <f>(C3-C10)^2/C10</f>
+        <v>1.1967032967032962</v>
+      </c>
+      <c r="D15" s="26">
+        <f>(D3-D10)^2/D10</f>
+        <v>1.2071428571428571</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="23">
+        <f>SUM(B14:D15)</f>
+        <v>3.7911680911680907</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="23">
+        <f>(2-1)*(3-1)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D55C48-A26F-4B95-ADE1-8258B9BA6AE5}">
   <dimension ref="A1:F323"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7184,7 +7539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C1BC82-F1D3-4346-9713-5C0CB421F971}">
   <dimension ref="A1:I325"/>
   <sheetViews>
@@ -14998,12 +15353,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA5940A-503D-489C-B382-F15E73984926}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
